--- a/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16890" windowHeight="7020"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -41,9 +41,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>isTimed</t>
-  </si>
-  <si>
     <t>canTimeStack</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>是否有倒计时（持续时间，倒计时结束后消失）</t>
   </si>
   <si>
     <t>再次获得时，是否叠加持续时间，如果不叠加，则取持续时间更长的那一个</t>
@@ -96,7 +90,7 @@
     <t>中毒</t>
   </si>
   <si>
-    <t>每秒受到5点伤害</t>
+    <t>每秒受到2点伤害</t>
   </si>
   <si>
     <t>1</t>
@@ -144,7 +138,7 @@
     <t>完全寄生</t>
   </si>
   <si>
-    <t>消化效率降低为[4:4:1]，当再次被寄生时，立即受到20%最大生命值的伤害</t>
+    <t>消化效率降低为[4:4:1]，当再次被寄生时，立即受到20点伤害</t>
   </si>
   <si>
     <t>120006</t>
@@ -186,25 +180,22 @@
     <t>基础移动速度+0.5m/S</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>120010</t>
   </si>
   <si>
-    <t>洞开</t>
-  </si>
-  <si>
-    <t>下一次解锁一个普通门或物品时将不消耗钥匙，持续到成功使用</t>
+    <t>无界通行</t>
+  </si>
+  <si>
+    <t>San值-25，下一次解锁被缠绕的物件时将无视代价</t>
   </si>
   <si>
     <t>120011</t>
   </si>
   <si>
-    <t>精准射击</t>
-  </si>
-  <si>
-    <t>下一次通过枪械的造成的伤害+50%，持续到成功使用</t>
+    <t>膛线与真理</t>
+  </si>
+  <si>
+    <t>San值-5.下一次通过枪械的造成的伤害+50%</t>
   </si>
   <si>
     <t>120012</t>
@@ -847,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +861,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,23 +1177,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="25.8666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="73.4" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.4666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="5" max="5" width="15.6" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.4666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1218,370 +1212,316 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" ht="67.5" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -180,31 +180,13 @@
     <t>基础移动速度+0.5m/S</t>
   </si>
   <si>
-    <t>120010</t>
-  </si>
-  <si>
-    <t>无界通行</t>
-  </si>
-  <si>
-    <t>San值-25，下一次解锁被缠绕的物件时将无视代价</t>
-  </si>
-  <si>
-    <t>120011</t>
-  </si>
-  <si>
-    <t>膛线与真理</t>
-  </si>
-  <si>
-    <t>San值-5.下一次通过枪械的造成的伤害+50%</t>
-  </si>
-  <si>
     <t>120012</t>
   </si>
   <si>
     <t>癫狂1</t>
   </si>
   <si>
-    <t>San值在(40,60]</t>
+    <t>San值在(40,60]时获得</t>
   </si>
   <si>
     <t>120013</t>
@@ -213,7 +195,7 @@
     <t>癫狂2</t>
   </si>
   <si>
-    <t>San值在(20-40]</t>
+    <t>San值在(20-40]时获得</t>
   </si>
   <si>
     <t>120014</t>
@@ -222,7 +204,7 @@
     <t>癫狂3</t>
   </si>
   <si>
-    <t>San值在[0,20]</t>
+    <t>San值在[0,20]时获得</t>
   </si>
 </sst>
 </file>
@@ -838,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,9 +843,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1441,17 +1420,17 @@
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1459,17 +1438,17 @@
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1487,40 +1466,6 @@
         <v>26</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>bool</t>
@@ -87,12 +84,6 @@
     <t>120001</t>
   </si>
   <si>
-    <t>中毒</t>
-  </si>
-  <si>
-    <t>每秒受到2点伤害</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -102,12 +93,6 @@
     <t>120002</t>
   </si>
   <si>
-    <t>灵视</t>
-  </si>
-  <si>
-    <t>能看到隐形的东西</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -117,94 +102,34 @@
     <t>120003</t>
   </si>
   <si>
-    <t>寄生</t>
-  </si>
-  <si>
-    <t>消化效率降低为[2:2:1]，当再次被寄生时，会变为【严重寄生】</t>
-  </si>
-  <si>
     <t>120004</t>
   </si>
   <si>
-    <t>严重寄生</t>
-  </si>
-  <si>
-    <t>消化效率降低为[3:3:1]]，当再次被寄生时，会变为【完全寄生】</t>
-  </si>
-  <si>
     <t>120005</t>
   </si>
   <si>
-    <t>完全寄生</t>
-  </si>
-  <si>
-    <t>消化效率降低为[4:4:1]，当再次被寄生时，立即受到20点伤害</t>
-  </si>
-  <si>
     <t>120006</t>
   </si>
   <si>
-    <t>美德</t>
-  </si>
-  <si>
-    <t>在此期间，反转San值的变化量</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
     <t>120007</t>
   </si>
   <si>
-    <t>疯狂</t>
-  </si>
-  <si>
-    <t>通过武器造成的最终伤害提升，值为最大San值与当前San值差值的一半</t>
-  </si>
-  <si>
     <t>120008</t>
   </si>
   <si>
-    <t>惊恐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">角色力量值+1，近战武器造成的伤害-30% </t>
-  </si>
-  <si>
     <t>120009</t>
   </si>
   <si>
-    <t>飞奔</t>
-  </si>
-  <si>
-    <t>基础移动速度+0.5m/S</t>
-  </si>
-  <si>
     <t>120012</t>
   </si>
   <si>
-    <t>癫狂1</t>
-  </si>
-  <si>
-    <t>San值在(40,60]时获得</t>
-  </si>
-  <si>
     <t>120013</t>
   </si>
   <si>
-    <t>癫狂2</t>
-  </si>
-  <si>
-    <t>San值在(20-40]时获得</t>
-  </si>
-  <si>
     <t>120014</t>
-  </si>
-  <si>
-    <t>癫狂3</t>
-  </si>
-  <si>
-    <t>San值在[0,20]时获得</t>
   </si>
 </sst>
 </file>
@@ -820,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,11 +764,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,19 +1078,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="25.8666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.8636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="73.4" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.4666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.4636363636364" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1201,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -1216,258 +1138,260 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="70" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <v>730001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>830001</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>730002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>830002</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>730003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>830003</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>730004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>830004</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="6">
+        <v>730005</v>
+      </c>
+      <c r="D9" s="6">
+        <v>830005</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>730006</v>
+      </c>
+      <c r="D10" s="6">
+        <v>830006</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="6">
+        <v>730007</v>
+      </c>
+      <c r="D11" s="6">
+        <v>830007</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="6">
+        <v>730008</v>
+      </c>
+      <c r="D12" s="6">
+        <v>830008</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>730009</v>
+      </c>
+      <c r="D13" s="6">
+        <v>830009</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="6">
+        <v>730010</v>
+      </c>
+      <c r="D14" s="6">
+        <v>830010</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>730011</v>
+      </c>
+      <c r="D15" s="6">
+        <v>830011</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="6">
+        <v>730012</v>
+      </c>
+      <c r="D16" s="6">
+        <v>830012</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_Conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>maxTime</t>
+  </si>
+  <si>
+    <t>nextCondition</t>
   </si>
   <si>
     <t>##type</t>
@@ -81,18 +84,30 @@
 </t>
   </si>
   <si>
+    <t>下一级BUFF</t>
+  </si>
+  <si>
     <t>120001</t>
   </si>
   <si>
+    <t>中毒</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>120002</t>
   </si>
   <si>
+    <t>灵视</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -102,34 +117,64 @@
     <t>120003</t>
   </si>
   <si>
+    <t>寄生</t>
+  </si>
+  <si>
     <t>120004</t>
   </si>
   <si>
+    <t>严重寄生</t>
+  </si>
+  <si>
     <t>120005</t>
   </si>
   <si>
+    <t>完全寄生</t>
+  </si>
+  <si>
     <t>120006</t>
   </si>
   <si>
+    <t>美德</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
     <t>120007</t>
   </si>
   <si>
+    <t>疯狂</t>
+  </si>
+  <si>
     <t>120008</t>
   </si>
   <si>
+    <t>惊恐</t>
+  </si>
+  <si>
     <t>120009</t>
   </si>
   <si>
+    <t>飞奔</t>
+  </si>
+  <si>
     <t>120012</t>
   </si>
   <si>
+    <t>癫狂1</t>
+  </si>
+  <si>
     <t>120013</t>
   </si>
   <si>
+    <t>癫狂2</t>
+  </si>
+  <si>
     <t>120014</t>
+  </si>
+  <si>
+    <t>癫狂3</t>
   </si>
 </sst>
 </file>
@@ -759,10 +804,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1078,313 +1123,394 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="25.8636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.4" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.4636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.9666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.475" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.975" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.4666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.4" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="70" spans="1:7">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="6">
         <v>730001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
         <v>830001</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="6">
         <v>730002</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
         <v>830002</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="6">
         <v>730003</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
         <v>830003</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="6">
         <v>730004</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6">
         <v>830004</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="6">
         <v>730005</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6">
         <v>830005</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="6">
         <v>730006</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
         <v>830006</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="6">
         <v>730007</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6">
         <v>830007</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="6">
         <v>730008</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6">
         <v>830008</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="6">
         <v>730009</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6">
         <v>830009</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="6">
         <v>730010</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6">
         <v>830010</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1" t="s">
-        <v>32</v>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="6">
         <v>730011</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6">
         <v>830011</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>730012</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6">
         <v>830012</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
